--- a/5 Consumer riceve tuple e fake news e valuta/risultati_test_set_generato.xlsx
+++ b/5 Consumer riceve tuple e fake news e valuta/risultati_test_set_generato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca Di Martino\Desktop\Tesi_baseline\5 Consumer riceve tuple e fake news e valuta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142652D2-296D-4648-A626-DAB2533C923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11051BF-2839-4369-961A-7CC3C83862BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="720" windowWidth="22716" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -492,6 +492,12 @@
 Marco Rubio supported the idea, agreeing ISIS uses social media for propaganda. Experts, however, dismissed Trump’s plan as unrealistic and extreme.
 Trump also claimed Muslims on Facebook should be reported, adding, “When I see someone say they’re Muslim, I flag them.” His remarks were met with applause.
 Critics say Trump is using fear and social media to boost his campaign. Despite controversy, he continues to lead in the polls.</t>
+  </si>
+  <si>
+    <t>During a segment on CNN, a U.S. Army veteran stunned viewers by accusing the network of “protecting Hillary Clinton” and pushing anti-Trump propaganda. The host tried to interrupt, but the veteran shot back: “I fought for this country, not your narrative.” The clip went viral, with thousands praising the veteran for exposing media bias.</t>
+  </si>
+  <si>
+    <t>Veteran Shuts Down CNN Host in 30 Seconds</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -592,7 +598,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -896,14 +901,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
     <col min="4" max="4" width="76.21875" customWidth="1"/>
     <col min="5" max="5" width="46.77734375" customWidth="1"/>
   </cols>
@@ -1090,96 +1096,99 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5138</v>
+        <v>59840</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5935</v>
+      </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1785</v>
+        <v>6524</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>29</v>
+      <c r="F12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5936</v>
+        <v>6425</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>59840</v>
+        <v>6741</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1187,39 +1196,39 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5942</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5935</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1227,19 +1236,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>6524</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1247,13 +1256,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>6425</v>
+        <v>336</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1267,33 +1276,33 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>6384</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>6741</v>
+        <v>376</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1307,13 +1316,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1327,19 +1336,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>316</v>
+        <v>489</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1347,19 +1356,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>325</v>
+        <v>492</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1367,19 +1376,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>336</v>
+        <v>497</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1387,19 +1396,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>352</v>
+        <v>499</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1407,19 +1416,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1427,19 +1436,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1447,59 +1456,59 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>456</v>
+        <v>11853</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>29</v>
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>486</v>
+        <v>11863</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>29</v>
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>489</v>
+        <v>11841</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1507,19 +1516,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>492</v>
+        <v>11855</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1527,19 +1536,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1547,19 +1556,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>166</v>
+        <v>468</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1567,59 +1576,59 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>185</v>
+        <v>475</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>29</v>
+        <v>93</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>189</v>
+        <v>485</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>175</v>
+        <v>492</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1627,19 +1636,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>11853</v>
+        <v>498</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1647,19 +1656,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>11863</v>
+        <v>11955</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1667,19 +1676,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>11841</v>
+        <v>11952</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1687,19 +1696,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>11855</v>
+        <v>11956</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1707,39 +1716,39 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>450</v>
+        <v>11965</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>29</v>
+      <c r="F41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>460</v>
+        <v>11974</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1747,19 +1756,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>468</v>
+        <v>12456</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1767,19 +1776,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>475</v>
+        <v>12465</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>93</v>
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1787,19 +1796,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>485</v>
+        <v>12689</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1807,265 +1816,285 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>492</v>
+        <v>5138</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>498</v>
-      </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>11955</v>
+        <v>1785</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" t="s">
-        <v>109</v>
+        <v>33</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>11952</v>
+        <v>5936</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" t="s">
-        <v>109</v>
+        <v>36</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>11956</v>
+        <v>5942</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" t="s">
-        <v>109</v>
+        <v>41</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>11965</v>
+        <v>6384</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>11974</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>12456</v>
+        <v>486</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>12465</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>12546</v>
+        <v>189</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
-      </c>
-      <c r="F55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>12584</v>
+        <v>450</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>12689</v>
+        <v>12546</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>10</v>
+        <v>118</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
+        <v>12584</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>12795</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>129</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>130</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>9</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>14</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F59">
+    <sortCondition ref="F31:F59"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
